--- a/individual_case_outputs/avey/145.xlsx
+++ b/individual_case_outputs/avey/145.xlsx
@@ -612,14 +612,14 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>gallstones</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>acute cholecystitis</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>acute cholecystitis</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>peptic ulcer disease</t>
@@ -647,7 +647,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>acute cholecystitis</t>
+          <t>gallbluder stones</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>acute cholecystitis</t>
+          <t>gallstones within the gallbladder</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>acute cholecystitis</t>
+          <t>acute cholangitis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>peptic ulcer disease</t>
+          <t>acute upper gastrointestinal bleeding</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
